--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,11 +479,6 @@
           <t>LSR no</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
           <t>AnnotationProperty</t>
@@ -506,14 +501,11 @@
           <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
@@ -521,30 +513,45 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>BFO:0000055</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>realises</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>realizes [BFO:0000055]</t>
-        </is>
-      </c>
+          <t>informal label</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
-        </is>
-      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>AnnotationProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BFO:0000055</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
         </is>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -513,17 +513,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GMHOR:0000002</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>informal label</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
           <t>AnnotationProperty</t>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,24 +488,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>has process part</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>has occurrent part [BFO:0000117]</t>
-        </is>
-      </c>
+          <t>has part [BFO:0000051]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
-        </is>
-      </c>
+          <t xml:space="preserve">A core relation that holds between a whole and its part. </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
@@ -515,42 +518,69 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GMHOR:0000002</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>informal label</t>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AnnotationProperty</t>
+          <t>ObjectProperty</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>GMHOR:0000002</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>informal label</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>AnnotationProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>BFO:0000055</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>realises</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>realizes [BFO:0000055]</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
         </is>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,14 +501,11 @@
           <t>has part [BFO:0000051]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">A core relation that holds between a whole and its part. </t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
@@ -562,25 +559,93 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>IAO:0000136</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BFO:0000050</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>A core relation that holds between a part and its whole.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>BFO:0000055</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>realises</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>realizes [BFO:0000055]</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
         </is>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,24 +486,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>BFO:0000051</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>has part</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>has part [BFO:0000051]</t>
-        </is>
-      </c>
+          <t>has context</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A core relation that holds between a whole and its part. </t>
+          <t>A relationship that specifies the context in which a process happens. Context refers to the temporal and material entities that are not part but may influence the outcome of the process.</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>process</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>process context</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -515,22 +518,29 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>has process part</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>has occurrent part [BFO:0000117]</t>
-        </is>
-      </c>
+          <t>has output</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+          <t xml:space="preserve">P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p. (occurrent/continuant) </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>continuant</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -542,40 +552,46 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GMHOR:0000002</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>informal label</t>
+          <t>has part</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>has part [BFO:0000051]</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A core relation that holds between a whole and its part. </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AnnotationProperty</t>
+          <t>ObjectProperty</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
+          <t>has process attribute</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>Inverse of process_profile_of.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -589,33 +605,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -627,25 +632,140 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>GMHOR:0000002</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>informal label</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AnnotationProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>IAO:0000136</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BFO:0000050</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>A core relation that holds between a part and its whole.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RO:0000056</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">participates in </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation between a continuant and a process, in which the continuant is somehow involved in the process. </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>continuant</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>BFO:0000055</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>realises</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>realizes [BFO:0000055]</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
         </is>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +486,11 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>has context</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>A relationship that specifies the context in which a process happens. Context refers to the temporal and material entities that are not part but may influence the outcome of the process.</t>
@@ -526,8 +523,6 @@
           <t>has output</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p. (occurrent/continuant) </t>
@@ -587,15 +582,11 @@
           <t>has process attribute</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
           <t>Inverse of process_profile_of.</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
@@ -647,24 +638,27 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>IAO:0000136</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
-        </is>
-      </c>
+          <t>investigates</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t xml:space="preserve"> A relation that holds between a research study and the human population that it is investigating. </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>human population</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -674,24 +668,17 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>BFO:0000050</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
-        </is>
-      </c>
+          <t>is a</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole.</t>
+          <t>A is_a B = def. A and B are universals and for all x (if x instance_of A then x instance_ of B)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -713,29 +700,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">participates in </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation between a continuant and a process, in which the continuant is somehow involved in the process. </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>continuant</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -747,25 +727,94 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>BFO:0000050</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>A core relation that holds between a part and its whole.</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>RO:0000056</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">participates in </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation between a continuant and a process, in which the continuant is somehow involved in the process. </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>continuant</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>BFO:0000055</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>realises</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>realizes [BFO:0000055]</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
         </is>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -582,6 +582,11 @@
           <t>has process attribute</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>has profile [BFO:0000119]</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>Inverse of process_profile_of.</t>
@@ -614,6 +619,16 @@
           <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
@@ -638,14 +653,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>investigates</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve"> A relation that holds between a research study and the human population that it is investigating. </t>
@@ -668,14 +680,11 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>is a</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>A is_a B = def. A and B are universals and for all x (if x instance_of A then x instance_ of B)</t>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -486,6 +486,7 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>has context</t>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +486,6 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
           <t>has context</t>
@@ -494,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>A relationship that specifies the context in which a process happens. Context refers to the temporal and material entities that are not part but may influence the outcome of the process.</t>
+          <t xml:space="preserve">A relationship that specifies the context in which a process happens. </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -524,6 +523,11 @@
           <t>has output</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>has participant [RO:0000057]</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p. (occurrent/continuant) </t>
@@ -561,6 +565,11 @@
           <t>has part [BFO:0000051]</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">A core relation that holds between a whole and its part. </t>
@@ -654,11 +663,21 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GMHOR:0000003</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>investigates</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>has input [RO:0002233]</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve"> A relation that holds between a research study and the human population that it is investigating. </t>
@@ -681,24 +700,24 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>IAO:0000136</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>is a</t>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>A is_a B = def. A and B are universals and for all x (if x instance_of A then x instance_ of B)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -710,22 +729,32 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t>A core relation that holds between a part and its whole.</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>entity</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -737,32 +766,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>RO:0000056</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t xml:space="preserve">participates in </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole.</t>
+          <t xml:space="preserve">A relation between a continuant and a process, in which the continuant is somehow involved in the process. </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>continuant</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -774,57 +798,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000055</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">participates in </t>
+          <t>realises</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>realizes [BFO:0000055]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation between a continuant and a process, in which the continuant is somehow involved in the process. </t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>continuant</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
-        <is>
-          <t>ObjectProperty</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BFO:0000055</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>realises</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>realizes [BFO:0000055]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
         </is>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -486,6 +486,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GMHOR:0000004</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>has context</t>

--- a/UpperLevel/GMHO_Upper_Rels.xlsx
+++ b/UpperLevel/GMHO_Upper_Rels.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,32 +520,33 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RO:0002234</t>
+          <t>GMHOR:0000005</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>has output</t>
-        </is>
-      </c>
+          <t>has intervention outcome</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>has participant [RO:0000057]</t>
+          <t>causal relation between entities [RO:0002506]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p. (occurrent/continuant) </t>
+          <t>A causal relation that holds between two entities where one is an intervention or its scenario and the other is an entity that is brought into existence, caused to occur, destroyed, prevented from occurring or changed by the other.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>planned process</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>continuant</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -557,27 +558,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BFO:0000051</t>
+          <t>RO:0002234</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>has part</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>has part [BFO:0000051]</t>
+          <t>has output</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>has participant [RO:0000057]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">A core relation that holds between a whole and its part. </t>
+          <t xml:space="preserve">P has output c iff c is a participant in p, c is present at the end of p, and c is not present at the beginning of p. (occurrent/continuant) </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>continuant</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -589,22 +595,27 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BFO:0000119</t>
+          <t>BFO:0000051</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>has process attribute</t>
+          <t>has part</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>has profile [BFO:0000119]</t>
+          <t>has part [BFO:0000051]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Inverse of process_profile_of.</t>
+          <t xml:space="preserve">A core relation that holds between a whole and its part. </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -616,32 +627,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BFO:0000117</t>
+          <t>BFO:0000119</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>has process part</t>
+          <t>has process attribute</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>has occurrent part [BFO:0000117]</t>
+          <t>has profile [BFO:0000119]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>occurrent</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>occurrent</t>
+          <t>Inverse of process_profile_of.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -653,76 +654,86 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GMHOR:0000002</t>
+          <t>BFO:0000117</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>informal label</t>
+          <t>has process part</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>has occurrent part [BFO:0000117]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Inverse of occurrent_part_of which is defined as: b occurrent_part_of c =Def. b is a part of c and b and c are occurrents.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>occurrent</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>AnnotationProperty</t>
+          <t>ObjectProperty</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GMHOR:0000003</t>
+          <t>GMHOR:0000002</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>investigates</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>has input [RO:0002233]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A relation that holds between a research study and the human population that it is investigating. </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>research study</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>human population</t>
+          <t>informal label</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>ObjectProperty</t>
+          <t>AnnotationProperty</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IAO:0000136</t>
+          <t>GMHOR:0000003</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>is about</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>is about [IAO:0000136]</t>
+          <t>investigates</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>has input [RO:0002233]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
+          <t xml:space="preserve"> A relation that holds between a research study and the human population that it is investigating. </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>research study</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>human population</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -734,32 +745,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BFO:0000050</t>
+          <t>IAO:0000136</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>part of</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>overlaps [RO:0002131]</t>
+          <t>is about</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>is about [IAO:0000136]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>A core relation that holds between a part and its whole.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>entity</t>
+          <t>Is about is a (currently) primitive relation that relates an information artifact to an entity.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -771,27 +772,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RO:0000056</t>
+          <t>BFO:0000050</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">participates in </t>
+          <t>part of</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>overlaps [RO:0002131]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">A relation between a continuant and a process, in which the continuant is somehow involved in the process. </t>
+          <t>A core relation that holds between a part and its whole.</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>continuant</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>occurrent</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -803,25 +809,57 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>RO:0000056</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">participates in </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A relation between a continuant and a process, in which the continuant is somehow involved in the process. </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>continuant</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>occurrent</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ObjectProperty</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>BFO:0000055</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>realises</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>realizes [BFO:0000055]</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>To say that b realizes c at t is to assert that there is some material entity d and b is a process which has participant d at t and c is a disposition or role of which d is bearer_of at tand the type instantiated by b is correlated with the type instantiated by c.</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>ObjectProperty</t>
         </is>
